--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-01_end.xlsx
@@ -312,7 +312,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ch'en"]   We don't need any of your "advantages," nor do I need to hear you lecture me about strategies.
+    <t xml:space="preserve">[name="Ch'en"]   We don't need any of your 'advantages,' nor do I need to hear you lecture me about strategies.
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_05-01_end.xlsx
@@ -244,7 +244,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   7:55 AM \ Overcast
+    <t xml:space="preserve">[name=""]   7:55 A.M. \ Overcast
 </t>
   </si>
   <si>
